--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5948D5E-473D-437C-891B-CE136B732986}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1950D83-56FD-41FE-96D5-BC7549BD5C72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
+    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
   <sheets>
     <sheet name="aburðartegundir" sheetId="1" r:id="rId1"/>
@@ -33,48 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>Tegund áburðar</t>
   </si>
   <si>
-    <t>Innkaupsverð</t>
-  </si>
-  <si>
-    <t>Flutningsmáti</t>
-  </si>
-  <si>
-    <t>Flutnings
-kostnaður</t>
-  </si>
-  <si>
-    <t>Magn per ferð flutningur</t>
-  </si>
-  <si>
     <t>Dreifingarmáti</t>
   </si>
   <si>
-    <t>Kostnaður vegna ámoksturs</t>
-  </si>
-  <si>
-    <t>Nitur á hektara í hverri dreifingu</t>
-  </si>
-  <si>
-    <t>Nitur (N)</t>
-  </si>
-  <si>
-    <t>Fosfór (P)</t>
-  </si>
-  <si>
-    <t>Kalíum (K)</t>
-  </si>
-  <si>
-    <t>Brennisteinn (S)</t>
-  </si>
-  <si>
-    <t>Þurrefni</t>
-  </si>
-  <si>
     <t>Nafn</t>
   </si>
   <si>
@@ -84,21 +50,9 @@
     <t>Tæki</t>
   </si>
   <si>
-    <t>kr./km</t>
-  </si>
-  <si>
     <t>tonn</t>
   </si>
   <si>
-    <t>Dreifingartæki</t>
-  </si>
-  <si>
-    <t>kg/hektara</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Tilbúinn áburður</t>
   </si>
   <si>
@@ -214,6 +168,75 @@
   </si>
   <si>
     <t>KG CO2 ígildi / klst</t>
+  </si>
+  <si>
+    <t>aburdur</t>
+  </si>
+  <si>
+    <t>innkaupsverd</t>
+  </si>
+  <si>
+    <t>flutningsadferd</t>
+  </si>
+  <si>
+    <t>magn_per_flutn</t>
+  </si>
+  <si>
+    <t>teg_dreif</t>
+  </si>
+  <si>
+    <t>amokstur</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Þurr</t>
+  </si>
+  <si>
+    <t>dreifibreidd</t>
+  </si>
+  <si>
+    <t>medalhradi_dreif</t>
+  </si>
+  <si>
+    <t>magn_per_dreif</t>
+  </si>
+  <si>
+    <t>laun_starfsm</t>
+  </si>
+  <si>
+    <t>leiga_drattarvel</t>
+  </si>
+  <si>
+    <t>leiga_dreiftaeki</t>
+  </si>
+  <si>
+    <t>los_framl</t>
+  </si>
+  <si>
+    <t>los_flutn</t>
+  </si>
+  <si>
+    <t>los_dreif</t>
+  </si>
+  <si>
+    <t>flutningsverd</t>
+  </si>
+  <si>
+    <t>N_per_ferd_proxy</t>
+  </si>
+  <si>
+    <t>afylling_min</t>
   </si>
 </sst>
 </file>
@@ -571,178 +594,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C59B6A-6CC9-4E6B-AA92-F8453F249335}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>64225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>590</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),2)</f>
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),3)</f>
+        <v>7.7</v>
+      </c>
+      <c r="O2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),4)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T2">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F2,dreifing!$A$3:$A$6,0),9)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>losun!B3</f>
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V2">
+        <f>losun!D3</f>
+        <v>1.2</v>
+      </c>
+      <c r="W2">
+        <f>losun!E3</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
       <c r="B3">
-        <v>64225</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>590</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>0.93</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>0.36</v>
       </c>
       <c r="J3">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T3">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F3,dreifing!$A$3:$A$6,0),9)</f>
+        <v>940</v>
+      </c>
+      <c r="U3">
+        <f>losun!B4</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>losun!D4</f>
+        <v>1.2</v>
+      </c>
+      <c r="W3">
+        <f>losun!E4</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>0.34</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.01</v>
+      </c>
+      <c r="K4">
+        <v>0.06</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T4">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F4,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4">
-        <v>0.93</v>
-      </c>
-      <c r="J4">
-        <v>0.36</v>
-      </c>
-      <c r="K4">
-        <v>0.12</v>
-      </c>
-      <c r="L4">
-        <v>0.03</v>
-      </c>
-      <c r="M4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f>losun!B5</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>losun!D5</f>
+        <v>1.2</v>
+      </c>
+      <c r="W4">
+        <f>losun!E5</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>690</v>
@@ -751,39 +927,74 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0.23</v>
+      </c>
+      <c r="M5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T5">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F5,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5">
-        <v>0.34</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-      <c r="L5">
-        <v>0.06</v>
-      </c>
-      <c r="M5">
+      <c r="U5">
+        <f>losun!B6</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>losun!D6</f>
+        <v>1.2</v>
+      </c>
+      <c r="W5">
+        <f>losun!E6</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6">
         <v>690</v>
@@ -792,74 +1003,162 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T6">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F6,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H6">
+      <c r="U6">
+        <f>losun!B7</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>losun!D7</f>
+        <v>1.7</v>
+      </c>
+      <c r="W6">
+        <f>losun!E7</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>590</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0.2</v>
-      </c>
-      <c r="K6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>690</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0.39</v>
+      </c>
+      <c r="I7">
+        <v>0.06</v>
+      </c>
+      <c r="J7">
+        <v>0.47</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>27.6</v>
+      </c>
+      <c r="M7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T7">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F7,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-      <c r="I7">
-        <v>0.8</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f>losun!B8</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>losun!D8</f>
+        <v>1.2</v>
+      </c>
+      <c r="W7">
+        <f>losun!E8</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>590</v>
@@ -868,39 +1167,80 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>1.9</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <v>0.81</v>
+      </c>
+      <c r="K8">
+        <v>0.15</v>
+      </c>
+      <c r="L8">
+        <v>27.1</v>
+      </c>
+      <c r="M8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T8">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F8,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H8">
-        <v>200</v>
-      </c>
-      <c r="I8">
-        <v>0.39</v>
-      </c>
-      <c r="J8">
-        <v>0.06</v>
-      </c>
-      <c r="K8">
-        <v>0.47</v>
-      </c>
-      <c r="L8">
-        <v>0.05</v>
-      </c>
-      <c r="M8">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f>losun!B9</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>losun!D9</f>
+        <v>1.2</v>
+      </c>
+      <c r="W8">
+        <f>losun!E9</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>590</v>
@@ -909,162 +1249,326 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>2.85</v>
+      </c>
+      <c r="I9">
+        <v>0.51</v>
+      </c>
+      <c r="J9">
+        <v>1.93</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>60.4</v>
+      </c>
+      <c r="M9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T9">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F9,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="I9">
-        <v>1.9</v>
-      </c>
-      <c r="J9">
-        <v>0.4</v>
-      </c>
-      <c r="K9">
-        <v>0.81</v>
-      </c>
-      <c r="L9">
-        <v>0.15</v>
-      </c>
-      <c r="M9">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f>losun!B10</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>losun!D10</f>
+        <v>1.2</v>
+      </c>
+      <c r="W9">
+        <f>losun!E10</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>590</v>
       </c>
       <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>8.93</v>
+      </c>
+      <c r="I10">
+        <v>3.62</v>
+      </c>
+      <c r="J10">
+        <v>0.7</v>
+      </c>
+      <c r="K10">
+        <v>0.49</v>
+      </c>
+      <c r="L10">
+        <v>95.9</v>
+      </c>
+      <c r="M10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),2)</f>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4.8</v>
+      </c>
+      <c r="O10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T10">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F10,dreifing!$A$3:$A$6,0),9)</f>
+        <v>940</v>
+      </c>
+      <c r="U10">
+        <f>losun!B11</f>
+        <v>0.25</v>
+      </c>
+      <c r="V10">
+        <f>losun!D11</f>
+        <v>1.2</v>
+      </c>
+      <c r="W10">
+        <f>losun!E11</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>690</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>0.65</v>
+      </c>
+      <c r="I11">
+        <v>0.09</v>
+      </c>
+      <c r="J11">
+        <v>0.33</v>
+      </c>
+      <c r="K11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T11">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F11,dreifing!$A$3:$A$6,0),9)</f>
+        <v>940</v>
+      </c>
+      <c r="U11">
+        <f>losun!B12</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>losun!D12</f>
+        <v>1.7</v>
+      </c>
+      <c r="W11">
+        <f>losun!E12</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>590</v>
+      </c>
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.26</v>
+      </c>
+      <c r="J12">
+        <v>0.42</v>
+      </c>
+      <c r="K12">
+        <v>0.13</v>
+      </c>
+      <c r="L12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T12">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F12,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-      <c r="I10">
-        <v>2.85</v>
-      </c>
-      <c r="J10">
-        <v>0.51</v>
-      </c>
-      <c r="K10">
-        <v>1.93</v>
-      </c>
-      <c r="L10">
-        <v>0.3</v>
-      </c>
-      <c r="M10">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>27000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>590</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11">
-        <v>940</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>8.93</v>
-      </c>
-      <c r="J11">
-        <v>3.62</v>
-      </c>
-      <c r="K11">
-        <v>0.7</v>
-      </c>
-      <c r="L11">
-        <v>0.49</v>
-      </c>
-      <c r="M11">
-        <v>95.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>690</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>940</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12">
-        <v>0.65</v>
-      </c>
-      <c r="J12">
-        <v>0.09</v>
-      </c>
-      <c r="K12">
-        <v>0.33</v>
-      </c>
-      <c r="L12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f>losun!B13</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>losun!D13</f>
+        <v>1.2</v>
+      </c>
+      <c r="W12">
+        <f>losun!E13</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>590</v>
@@ -1073,121 +1577,238 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>1.34</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.91</v>
+      </c>
+      <c r="K13">
+        <v>0.18</v>
+      </c>
+      <c r="L13">
+        <v>37.9</v>
+      </c>
+      <c r="M13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T13">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F13,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="I13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J13">
-        <v>0.26</v>
-      </c>
-      <c r="K13">
-        <v>0.42</v>
-      </c>
-      <c r="L13">
-        <v>0.13</v>
-      </c>
-      <c r="M13">
-        <v>39.299999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f>losun!B14</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>losun!D14</f>
+        <v>1.2</v>
+      </c>
+      <c r="W13">
+        <f>losun!E14</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>590</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>0.76</v>
+      </c>
+      <c r="I14">
+        <v>0.09</v>
+      </c>
+      <c r="J14">
+        <v>0.02</v>
+      </c>
+      <c r="K14">
+        <v>0.13</v>
+      </c>
+      <c r="L14">
+        <v>14.2</v>
+      </c>
+      <c r="M14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),2)</f>
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),4)</f>
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T14">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F14,dreifing!$A$3:$A$6,0),9)</f>
+        <v>940</v>
+      </c>
+      <c r="U14">
+        <f>losun!B15</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>losun!D15</f>
+        <v>1.7</v>
+      </c>
+      <c r="W14">
+        <f>losun!E15</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>690</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>1.7</v>
+      </c>
+      <c r="I15">
+        <v>0.33</v>
+      </c>
+      <c r="L15">
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T15">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F15,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-      <c r="I14">
-        <v>1.34</v>
-      </c>
-      <c r="J14">
-        <v>0.2</v>
-      </c>
-      <c r="K14">
-        <v>0.91</v>
-      </c>
-      <c r="L14">
-        <v>0.18</v>
-      </c>
-      <c r="M14">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>590</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>940</v>
-      </c>
-      <c r="H15">
-        <v>200</v>
-      </c>
-      <c r="I15">
-        <v>0.76</v>
-      </c>
-      <c r="J15">
-        <v>0.09</v>
-      </c>
-      <c r="K15">
-        <v>0.02</v>
-      </c>
-      <c r="L15">
-        <v>0.13</v>
-      </c>
-      <c r="M15">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f>losun!B16</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>losun!D16</f>
+        <v>1.7</v>
+      </c>
+      <c r="W15">
+        <f>losun!E16</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>690</v>
@@ -1196,63 +1817,69 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>0.39</v>
+      </c>
+      <c r="I16">
+        <v>0.02</v>
+      </c>
+      <c r="J16">
+        <v>0.17</v>
+      </c>
+      <c r="K16">
+        <v>0.02</v>
+      </c>
+      <c r="L16">
+        <v>1.5</v>
+      </c>
+      <c r="M16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),2)</f>
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),3)</f>
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),6)</f>
+        <v>7889</v>
+      </c>
+      <c r="R16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),7)</f>
+        <v>14752</v>
+      </c>
+      <c r="S16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),8)</f>
+        <v>2325</v>
+      </c>
+      <c r="T16">
+        <f>INDEX(dreifing!$A$3:$I$6,MATCH(aburðartegundir!$F16,dreifing!$A$3:$A$6,0),9)</f>
         <v>940</v>
       </c>
-      <c r="H16">
-        <v>200</v>
-      </c>
-      <c r="I16">
+      <c r="U16">
+        <f>losun!B17</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>losun!D17</f>
         <v>1.7</v>
       </c>
-      <c r="J16">
-        <v>0.33</v>
-      </c>
-      <c r="M16">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>690</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>940</v>
-      </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <v>0.39</v>
-      </c>
-      <c r="J17">
-        <v>0.02</v>
-      </c>
-      <c r="K17">
-        <v>0.17</v>
-      </c>
-      <c r="L17">
-        <v>0.02</v>
-      </c>
-      <c r="M17">
-        <v>1.5</v>
+      <c r="W16">
+        <f>losun!E17</f>
+        <v>10.88</v>
       </c>
     </row>
   </sheetData>
@@ -1265,72 +1892,72 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -1359,7 +1986,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1388,7 +2015,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1417,7 +2044,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -1453,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1C725-B599-47B4-9966-73CBA4E61AA9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,44 +2091,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1.2</v>
@@ -1512,13 +2139,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1.2</v>
@@ -1529,13 +2156,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1.2</v>
@@ -1546,13 +2173,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1.2</v>
@@ -1563,13 +2190,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1.7</v>
@@ -1580,13 +2207,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1.2</v>
@@ -1597,13 +2224,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1.2</v>
@@ -1614,13 +2241,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1.2</v>
@@ -1631,13 +2258,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1.2</v>
@@ -1648,13 +2275,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1.7</v>
@@ -1665,13 +2292,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1.2</v>
@@ -1682,13 +2309,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -1699,13 +2326,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1.7</v>
@@ -1716,13 +2343,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1.7</v>
@@ -1733,13 +2360,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1.7</v>

--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1950D83-56FD-41FE-96D5-BC7549BD5C72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DA509-3BB5-4C17-A740-CE990DB6EEAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
   <sheets>
     <sheet name="aburðartegundir" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,8 +1384,7 @@
         <v>940</v>
       </c>
       <c r="U10">
-        <f>losun!B11</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="V10">
         <f>losun!D11</f>
@@ -1548,8 +1547,7 @@
         <v>940</v>
       </c>
       <c r="U12">
-        <f>losun!B13</f>
-        <v>0</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="V12">
         <f>losun!D13</f>
@@ -1712,8 +1710,7 @@
         <v>940</v>
       </c>
       <c r="U14">
-        <f>losun!B15</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V14">
         <f>losun!D15</f>

--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DA509-3BB5-4C17-A740-CE990DB6EEAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348043D-6F8E-4B02-9819-3347E33723A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
+    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
   <sheets>
     <sheet name="aburðartegundir" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U4" sqref="U4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,8 +734,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f>losun!B3</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V2">
         <f>losun!D3</f>
@@ -816,8 +815,7 @@
         <v>940</v>
       </c>
       <c r="U3">
-        <f>losun!B4</f>
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V3">
         <f>losun!D4</f>
@@ -898,8 +896,7 @@
         <v>940</v>
       </c>
       <c r="U4">
-        <f>losun!B5</f>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="V4">
         <f>losun!D5</f>
@@ -974,8 +971,7 @@
         <v>940</v>
       </c>
       <c r="U5">
-        <f>losun!B6</f>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="V5">
         <f>losun!D6</f>
@@ -1384,7 +1380,7 @@
         <v>940</v>
       </c>
       <c r="U10">
-        <v>0.125</v>
+        <v>0.19</v>
       </c>
       <c r="V10">
         <f>losun!D11</f>
@@ -1710,7 +1706,7 @@
         <v>940</v>
       </c>
       <c r="U14">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="V14">
         <f>losun!D15</f>
@@ -1785,8 +1781,7 @@
         <v>940</v>
       </c>
       <c r="U15">
-        <f>losun!B16</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="V15">
         <f>losun!D16</f>

--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348043D-6F8E-4B02-9819-3347E33723A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B63C2-FEF8-4453-88EE-F4E9B99D967F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
   <sheets>
     <sheet name="aburðartegundir" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>Tegund áburðar</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>afylling_min</t>
+  </si>
+  <si>
+    <t>los_n</t>
   </si>
 </sst>
 </file>
@@ -594,15 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C59B6A-6CC9-4E6B-AA92-F8453F249335}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -672,8 +680,11 @@
       <c r="W1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -734,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="V2">
         <f>losun!D3</f>
@@ -744,8 +755,12 @@
         <f>losun!E3</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <f>H2/100*(44/28)*0.01*298</f>
+        <v>1.1707142857142858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -825,8 +840,12 @@
         <f>losun!E4</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f t="shared" ref="X3:X16" si="0">H3/100*(44/28)*0.01*298</f>
+        <v>4.3550571428571432E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -896,7 +915,7 @@
         <v>940</v>
       </c>
       <c r="U4">
-        <v>0.19</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="V4">
         <f>losun!D5</f>
@@ -906,8 +925,12 @@
         <f>losun!E5</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1.5921714285714286E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -971,7 +994,7 @@
         <v>940</v>
       </c>
       <c r="U5">
-        <v>0.19</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="V5">
         <f>losun!D6</f>
@@ -981,8 +1004,12 @@
         <f>losun!E6</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>9.3657142857142869E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1063,8 +1090,12 @@
         <f>losun!E7</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>3.7462857142857145E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1145,8 +1176,12 @@
         <f>losun!E8</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>1.8263142857142856E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1227,8 +1262,12 @@
         <f>losun!E9</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>8.8974285714285714E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1309,8 +1348,12 @@
         <f>losun!E10</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.13346142857142859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1423,7 @@
         <v>940</v>
       </c>
       <c r="U10">
-        <v>0.19</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="V10">
         <f>losun!D11</f>
@@ -1390,8 +1433,12 @@
         <f>losun!E11</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0.4181791428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1472,8 +1519,12 @@
         <f>losun!E12</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>3.0438571428571436E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1553,8 +1604,12 @@
         <f>losun!E13</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>0.10302285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1690,12 @@
         <f>losun!E14</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>6.2750285714285717E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1716,8 +1775,12 @@
         <f>losun!E15</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>3.5589714285714287E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1854,12 @@
         <f>losun!E16</f>
         <v>10.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>7.9608571428571445E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1872,6 +1939,10 @@
       <c r="W16">
         <f>losun!E17</f>
         <v>10.88</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>1.8263142857142856E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2073,7 +2144,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E17"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhi\OneDrive - EFLA hf., verkfræðistofa\Documents\aburdur2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B63C2-FEF8-4453-88EE-F4E9B99D967F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D60F2-869D-45E0-B2BF-0C9064114FDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
+    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
   <sheets>
     <sheet name="aburðartegundir" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U3" sqref="U3"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
         <v>200</v>
       </c>
       <c r="H4">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>1.5921714285714286E-2</v>
+        <v>2.1072857142857147E-2</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>200</v>
       </c>
       <c r="H8">
-        <v>1.9</v>
+        <v>2.76</v>
       </c>
       <c r="I8">
         <v>0.4</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>8.8974285714285714E-2</v>
+        <v>0.12924685714285714</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>200</v>
       </c>
       <c r="H9">
-        <v>2.85</v>
+        <v>3.58</v>
       </c>
       <c r="I9">
         <v>0.51</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0.13346142857142859</v>
+        <v>0.16764628571428572</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>8.93</v>
+        <v>9.35</v>
       </c>
       <c r="I10">
         <v>3.62</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>0.4181791428571428</v>
+        <v>0.43784714285714288</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>200</v>
       </c>
       <c r="H11">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="I11">
         <v>0.09</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>3.0438571428571436E-2</v>
+        <v>1.2643714285714286E-2</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
         <v>200</v>
       </c>
       <c r="H12">
-        <v>2.2000000000000002</v>
+        <v>1.31</v>
       </c>
       <c r="I12">
         <v>0.26</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>0.10302285714285715</v>
+        <v>6.1345428571428579E-2</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>200</v>
       </c>
       <c r="H14">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="I14">
         <v>0.09</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>3.5589714285714287E-2</v>
+        <v>4.1209142857142861E-2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">

--- a/heimildir.xlsx
+++ b/heimildir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhi\OneDrive - EFLA hf., verkfræðistofa\Documents\aburdur2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Svið\3. Orka\3.1. Orkumálaráðgjöf\Verkefnaoflun\Áburðarmál\aburdur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D60F2-869D-45E0-B2BF-0C9064114FDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8928FCF-DDCE-4B9A-83B9-4C3722725633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="17640" xr2:uid="{61A65F08-5524-4945-817E-387BD8820227}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10">
         <v>9.35</v>
